--- a/story/主线剧情/main/level_main_08-15_end.xlsx
+++ b/story/主线剧情/main/level_main_08-15_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="乌萨斯农民"] 啊啊啊啊啊啊啊！！！
 </t>
   </si>
@@ -179,6 +185,162 @@
   </si>
   <si>
     <t xml:space="preserve">[name="チェン"] アーミヤ！　気をつけろ！！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] ...Aaaaaaaaghhh!!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Fire! Fire! It burns!!!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Help!!!!!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Child"] Dad!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sentinel"] What's going on?! Quick! Get out of here! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] My son! My son! You... Infected lowlife!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] Ahhh!! The fire! It's too strong! *Cough* *cough*... *cough*...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Man"] You wretch!!! If I die here... Curse you!!! Curse you!!! My Emperor, I beseech you, lay down your divine punishment on these wretched Infected!!      
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Ah... ah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no turning back anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besides Talulah, no one else knows of the events that transpired here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And everything that occurred after that is as good as public knowledge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="But should you recognize me, should you have understood me, should you realize just the sort of world you’re stood in...", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="Ursus's future will from then on be in your hands.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiya opens her eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though her tears are welling up in her eyes, she has already seen it all. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What's a Cautus doing here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"] Amiya!! Watch out!!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 으아아아아아악!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 부, 불이야! 불이다! 으아악, 뜨거워!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="우르수스 농민"] 사람 살려!!!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아이"] 아빠!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="보초병"] 대체 어떻게 된 거지? 모두 피해, 어서!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노인"] 흐흑, 짐승만도 못한 감염자가 내 귀한 자식을!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노인"] 아악, 뜨거워! 사, 사람 살려! 쿨럭, 쿨럭……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노인"] 이 망할 것!!! 내 죽어서도…… 널 저주할 것이다!! 널 저주할 것이야!!! 황제 폐하, 이 죽일 놈의 감염자들을 벌하옵소서!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아…… 아아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이젠 돌이킬 수 없게 되었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이곳에서 벌어진 일은, 탈룰라를 제외하고는 아무도 알지 못했지만,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 후에 벌어진 일들은, 모두가 알게 되었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="날 인정하고, 이해하고, 그리고 자신이 어떤 땅 위에 서 있는지 분명히 알게 되는 날……", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="우르수스의 미래는 네 손에 쥐어지게 될 거다.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아미야가 눈을 떴다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈가는 여전히 젖어있었지만, 그녀는 모든 것을 보고 말았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 카우투스가 왜 여기에 있는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸"] 아미야!! 조심해!!
 </t>
   </si>
 </sst>
@@ -537,178 +699,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
